--- a/biology/Botanique/Melon_vert_olive_d'hiver/Melon_vert_olive_d'hiver.xlsx
+++ b/biology/Botanique/Melon_vert_olive_d'hiver/Melon_vert_olive_d'hiver.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Melon_vert_olive_d%27hiver</t>
+          <t>Melon_vert_olive_d'hiver</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le melon vert olive d'hiver, ou vert de Noël, ou melon à peau de crapaud, est un fruit de la famille Cucurbitaceae, de la variété Cucumis melo, du groupe Inodorus. Aussi appelé piel de sapo en espagnol, il est originaire d'Espagne. D'une longueur d'environ 30 centimètres, il est de forme ovoïde, avec une peau rayée vert foncé et une chair vert pâle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Melon_vert_olive_d%27hiver</t>
+          <t>Melon_vert_olive_d'hiver</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce melon mesure environ 30 centimètres de long et est de forme ovoïde.
 Il possède une peau épaisse verte couverte de bande sclérosée pâles. La chair est légèrement verte à blanche.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Melon_vert_olive_d%27hiver</t>
+          <t>Melon_vert_olive_d'hiver</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Consommation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un melon de garde cultivé dans les régions chaudes. Semé tardivement, il se conserve jusqu'au mois de février[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un melon de garde cultivé dans les régions chaudes. Semé tardivement, il se conserve jusqu'au mois de février.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Melon_vert_olive_d%27hiver</t>
+          <t>Melon_vert_olive_d'hiver</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est originaire de l'Espagne[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est originaire de l'Espagne.
 </t>
         </is>
       </c>
